--- a/base.xlsx
+++ b/base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JC\Desktop\progr\git2\pap2\papnodejs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FF252C-2836-4C94-AFEE-3A9CBA1033B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613C22A6-A838-43CE-B55A-0C3030C6DA62}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{08B08CE7-A0F4-4288-9C68-3CF8BB065963}"/>
+    <workbookView xWindow="-5580" yWindow="2265" windowWidth="12000" windowHeight="6510" xr2:uid="{08B08CE7-A0F4-4288-9C68-3CF8BB065963}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
   <si>
     <t>Left Bar</t>
   </si>
@@ -118,6 +118,96 @@
   </si>
   <si>
     <t>Novidades</t>
+  </si>
+  <si>
+    <t>Base de dados</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Primeiro Nome</t>
+  </si>
+  <si>
+    <t>Segundo Nome</t>
+  </si>
+  <si>
+    <t>Imagem</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Notificações</t>
+  </si>
+  <si>
+    <t>Apostas Feitas:</t>
+  </si>
+  <si>
+    <t>por ordem em uma simples tabela</t>
+  </si>
+  <si>
+    <t>,%'s de vezes que acerta em cada categoria, guardar o numero de apostas feitas por categoria e qts acertadas</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Clube:</t>
+  </si>
+  <si>
+    <t>classificação</t>
+  </si>
+  <si>
+    <t>jogadores:</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>idade</t>
+  </si>
+  <si>
+    <t>nacionalidade</t>
+  </si>
+  <si>
+    <t>imagem</t>
+  </si>
+  <si>
+    <t>posição</t>
+  </si>
+  <si>
+    <t>% de vezes no 11 inicial</t>
+  </si>
+  <si>
+    <t>descrição</t>
+  </si>
+  <si>
+    <t>novidades:</t>
+  </si>
+  <si>
+    <t>titulo</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>texto</t>
+  </si>
+  <si>
+    <t>likes</t>
+  </si>
+  <si>
+    <t>comentários:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nome </t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Nossa História</t>
   </si>
 </sst>
 </file>
@@ -153,8 +243,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -472,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F01E55-2202-4DB3-BA41-FB4AF3C17CF7}">
-  <dimension ref="A2:O29"/>
+  <dimension ref="A2:O67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,7 +906,189 @@
         <v>250</v>
       </c>
     </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A32:I32"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/base.xlsx
+++ b/base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JC\Desktop\progr\git2\pap2\papnodejs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613C22A6-A838-43CE-B55A-0C3030C6DA62}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D362FD59-1CEE-444D-AE9B-7FE4ED9F7D36}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5580" yWindow="2265" windowWidth="12000" windowHeight="6510" xr2:uid="{08B08CE7-A0F4-4288-9C68-3CF8BB065963}"/>
+    <workbookView xWindow="0" yWindow="2265" windowWidth="12000" windowHeight="6510" xr2:uid="{08B08CE7-A0F4-4288-9C68-3CF8BB065963}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
   <si>
     <t>Left Bar</t>
   </si>
@@ -208,16 +208,107 @@
   </si>
   <si>
     <t>Nossa História</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>DG</t>
+  </si>
+  <si>
+    <t>Fermentelos</t>
+  </si>
+  <si>
+    <t>Vista Alegre</t>
+  </si>
+  <si>
+    <t>Alvarenga</t>
+  </si>
+  <si>
+    <t>LAAC</t>
+  </si>
+  <si>
+    <t>P. Brandão</t>
+  </si>
+  <si>
+    <t>Valecambrense</t>
+  </si>
+  <si>
+    <t>Macieirense</t>
+  </si>
+  <si>
+    <t>Mansores</t>
+  </si>
+  <si>
+    <t>UD Mourisquense</t>
+  </si>
+  <si>
+    <t>São Roque</t>
+  </si>
+  <si>
+    <t>Argoncilhe</t>
+  </si>
+  <si>
+    <t>CR Antes</t>
+  </si>
+  <si>
+    <t>Pinheirense</t>
+  </si>
+  <si>
+    <t>Arrifanense</t>
+  </si>
+  <si>
+    <t>ACRD Mosteirô</t>
+  </si>
+  <si>
+    <t>EF Rui Dolores</t>
+  </si>
+  <si>
+    <t>Calvão</t>
+  </si>
+  <si>
+    <t>CRAC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -240,10 +331,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -251,8 +343,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -565,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F01E55-2202-4DB3-BA41-FB4AF3C17CF7}">
-  <dimension ref="A2:O67"/>
+  <dimension ref="A2:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R45" sqref="R45:R64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,37 +1024,37 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>36</v>
       </c>
@@ -960,115 +1065,719 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R46" s="3"/>
+    </row>
+    <row r="47" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="4">
+        <v>1</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="I47" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J47" s="6">
+        <v>57</v>
+      </c>
+      <c r="K47" s="5">
+        <v>22</v>
+      </c>
+      <c r="L47" s="5">
+        <v>18</v>
+      </c>
+      <c r="M47" s="5">
+        <v>3</v>
+      </c>
+      <c r="N47" s="5">
+        <v>1</v>
+      </c>
+      <c r="O47" s="5">
+        <v>51</v>
+      </c>
+      <c r="P47" s="5">
+        <v>16</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>35</v>
+      </c>
+      <c r="R47" s="5"/>
+    </row>
+    <row r="48" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G48" s="4">
+        <v>2</v>
+      </c>
+      <c r="H48" s="4"/>
+      <c r="I48" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J48" s="6">
+        <v>54</v>
+      </c>
+      <c r="K48" s="5">
+        <v>22</v>
+      </c>
+      <c r="L48" s="5">
+        <v>17</v>
+      </c>
+      <c r="M48" s="5">
+        <v>3</v>
+      </c>
+      <c r="N48" s="5">
+        <v>2</v>
+      </c>
+      <c r="O48" s="5">
+        <v>59</v>
+      </c>
+      <c r="P48" s="5">
+        <v>16</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>43</v>
+      </c>
+      <c r="R48" s="5"/>
+    </row>
+    <row r="49" spans="2:18" ht="30" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G49" s="4">
+        <v>3</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J49" s="6">
+        <v>44</v>
+      </c>
+      <c r="K49" s="5">
+        <v>22</v>
+      </c>
+      <c r="L49" s="5">
+        <v>13</v>
+      </c>
+      <c r="M49" s="5">
+        <v>5</v>
+      </c>
+      <c r="N49" s="5">
+        <v>4</v>
+      </c>
+      <c r="O49" s="5">
+        <v>41</v>
+      </c>
+      <c r="P49" s="5">
+        <v>22</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>19</v>
+      </c>
+      <c r="R49" s="5"/>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G50" s="4">
+        <v>4</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J50" s="6">
+        <v>42</v>
+      </c>
+      <c r="K50" s="5">
+        <v>22</v>
+      </c>
+      <c r="L50" s="5">
+        <v>12</v>
+      </c>
+      <c r="M50" s="5">
+        <v>6</v>
+      </c>
+      <c r="N50" s="5">
+        <v>4</v>
+      </c>
+      <c r="O50" s="5">
+        <v>43</v>
+      </c>
+      <c r="P50" s="5">
+        <v>28</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>15</v>
+      </c>
+      <c r="R50" s="5"/>
+    </row>
+    <row r="51" spans="2:18" ht="30" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G51" s="4">
+        <v>5</v>
+      </c>
+      <c r="H51" s="4"/>
+      <c r="I51" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J51" s="6">
+        <v>40</v>
+      </c>
+      <c r="K51" s="5">
+        <v>22</v>
+      </c>
+      <c r="L51" s="5">
+        <v>12</v>
+      </c>
+      <c r="M51" s="5">
+        <v>4</v>
+      </c>
+      <c r="N51" s="5">
+        <v>6</v>
+      </c>
+      <c r="O51" s="5">
+        <v>33</v>
+      </c>
+      <c r="P51" s="5">
+        <v>26</v>
+      </c>
+      <c r="Q51" s="4">
+        <v>7</v>
+      </c>
+      <c r="R51" s="5"/>
+    </row>
+    <row r="52" spans="2:18" ht="30" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G52" s="4">
+        <v>6</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J52" s="6">
+        <v>38</v>
+      </c>
+      <c r="K52" s="5">
+        <v>22</v>
+      </c>
+      <c r="L52" s="5">
+        <v>11</v>
+      </c>
+      <c r="M52" s="5">
+        <v>5</v>
+      </c>
+      <c r="N52" s="5">
+        <v>6</v>
+      </c>
+      <c r="O52" s="5">
+        <v>36</v>
+      </c>
+      <c r="P52" s="5">
+        <v>24</v>
+      </c>
+      <c r="Q52" s="4">
+        <v>12</v>
+      </c>
+      <c r="R52" s="5"/>
+    </row>
+    <row r="53" spans="2:18" ht="30" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G53" s="4">
+        <v>7</v>
+      </c>
+      <c r="H53" s="4"/>
+      <c r="I53" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J53" s="6">
+        <v>33</v>
+      </c>
+      <c r="K53" s="5">
+        <v>22</v>
+      </c>
+      <c r="L53" s="5">
+        <v>10</v>
+      </c>
+      <c r="M53" s="5">
+        <v>3</v>
+      </c>
+      <c r="N53" s="5">
+        <v>9</v>
+      </c>
+      <c r="O53" s="5">
+        <v>37</v>
+      </c>
+      <c r="P53" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>4</v>
+      </c>
+      <c r="R53" s="5"/>
+    </row>
+    <row r="54" spans="2:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G54" s="4">
+        <v>8</v>
+      </c>
+      <c r="H54" s="4"/>
+      <c r="I54" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J54" s="6">
+        <v>31</v>
+      </c>
+      <c r="K54" s="5">
+        <v>22</v>
+      </c>
+      <c r="L54" s="5">
+        <v>8</v>
+      </c>
+      <c r="M54" s="5">
+        <v>7</v>
+      </c>
+      <c r="N54" s="5">
+        <v>7</v>
+      </c>
+      <c r="O54" s="5">
+        <v>35</v>
+      </c>
+      <c r="P54" s="5">
+        <v>29</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>6</v>
+      </c>
+      <c r="R54" s="5"/>
+    </row>
+    <row r="55" spans="2:18" ht="45" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G55" s="4">
+        <v>9</v>
+      </c>
+      <c r="H55" s="4"/>
+      <c r="I55" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J55" s="6">
+        <v>29</v>
+      </c>
+      <c r="K55" s="5">
+        <v>22</v>
+      </c>
+      <c r="L55" s="5">
+        <v>7</v>
+      </c>
+      <c r="M55" s="5">
+        <v>8</v>
+      </c>
+      <c r="N55" s="5">
+        <v>7</v>
+      </c>
+      <c r="O55" s="5">
+        <v>26</v>
+      </c>
+      <c r="P55" s="5">
+        <v>27</v>
+      </c>
+      <c r="Q55" s="4">
+        <v>-1</v>
+      </c>
+      <c r="R55" s="5"/>
+    </row>
+    <row r="56" spans="2:18" ht="30" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G56" s="4">
+        <v>10</v>
+      </c>
+      <c r="H56" s="4"/>
+      <c r="I56" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J56" s="6">
+        <v>26</v>
+      </c>
+      <c r="K56" s="5">
+        <v>22</v>
+      </c>
+      <c r="L56" s="5">
+        <v>7</v>
+      </c>
+      <c r="M56" s="5">
+        <v>5</v>
+      </c>
+      <c r="N56" s="5">
+        <v>10</v>
+      </c>
+      <c r="O56" s="5">
+        <v>30</v>
+      </c>
+      <c r="P56" s="5">
+        <v>40</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>-10</v>
+      </c>
+      <c r="R56" s="5"/>
+    </row>
+    <row r="57" spans="2:18" ht="30" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G57" s="4">
+        <v>11</v>
+      </c>
+      <c r="H57" s="4"/>
+      <c r="I57" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J57" s="6">
+        <v>24</v>
+      </c>
+      <c r="K57" s="5">
+        <v>22</v>
+      </c>
+      <c r="L57" s="5">
+        <v>5</v>
+      </c>
+      <c r="M57" s="5">
+        <v>9</v>
+      </c>
+      <c r="N57" s="5">
+        <v>8</v>
+      </c>
+      <c r="O57" s="5">
+        <v>21</v>
+      </c>
+      <c r="P57" s="5">
+        <v>25</v>
+      </c>
+      <c r="Q57" s="4">
+        <v>-4</v>
+      </c>
+      <c r="R57" s="5"/>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G58" s="4">
+        <v>12</v>
+      </c>
+      <c r="H58" s="4"/>
+      <c r="I58" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J58" s="6">
+        <v>24</v>
+      </c>
+      <c r="K58" s="5">
+        <v>22</v>
+      </c>
+      <c r="L58" s="5">
+        <v>6</v>
+      </c>
+      <c r="M58" s="5">
+        <v>6</v>
+      </c>
+      <c r="N58" s="5">
+        <v>10</v>
+      </c>
+      <c r="O58" s="5">
+        <v>34</v>
+      </c>
+      <c r="P58" s="5">
+        <v>44</v>
+      </c>
+      <c r="Q58" s="4">
+        <v>-10</v>
+      </c>
+      <c r="R58" s="5"/>
+    </row>
+    <row r="59" spans="2:18" ht="30" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G59" s="4">
+        <v>13</v>
+      </c>
+      <c r="H59" s="4"/>
+      <c r="I59" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J59" s="6">
+        <v>23</v>
+      </c>
+      <c r="K59" s="5">
+        <v>22</v>
+      </c>
+      <c r="L59" s="5">
+        <v>6</v>
+      </c>
+      <c r="M59" s="5">
+        <v>5</v>
+      </c>
+      <c r="N59" s="5">
+        <v>11</v>
+      </c>
+      <c r="O59" s="5">
+        <v>30</v>
+      </c>
+      <c r="P59" s="5">
+        <v>44</v>
+      </c>
+      <c r="Q59" s="4">
+        <v>-14</v>
+      </c>
+      <c r="R59" s="5"/>
+    </row>
+    <row r="60" spans="2:18" ht="30" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G60" s="4">
+        <v>14</v>
+      </c>
+      <c r="H60" s="4"/>
+      <c r="I60" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J60" s="6">
+        <v>22</v>
+      </c>
+      <c r="K60" s="5">
+        <v>22</v>
+      </c>
+      <c r="L60" s="5">
+        <v>6</v>
+      </c>
+      <c r="M60" s="5">
+        <v>4</v>
+      </c>
+      <c r="N60" s="5">
+        <v>12</v>
+      </c>
+      <c r="O60" s="5">
+        <v>30</v>
+      </c>
+      <c r="P60" s="5">
+        <v>36</v>
+      </c>
+      <c r="Q60" s="4">
+        <v>-6</v>
+      </c>
+      <c r="R60" s="5"/>
+    </row>
+    <row r="61" spans="2:18" ht="30" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G61" s="4">
+        <v>15</v>
+      </c>
+      <c r="H61" s="4"/>
+      <c r="I61" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J61" s="6">
+        <v>20</v>
+      </c>
+      <c r="K61" s="5">
+        <v>22</v>
+      </c>
+      <c r="L61" s="5">
+        <v>4</v>
+      </c>
+      <c r="M61" s="5">
+        <v>8</v>
+      </c>
+      <c r="N61" s="5">
+        <v>10</v>
+      </c>
+      <c r="O61" s="5">
+        <v>26</v>
+      </c>
+      <c r="P61" s="5">
+        <v>46</v>
+      </c>
+      <c r="Q61" s="4">
+        <v>-20</v>
+      </c>
+      <c r="R61" s="5"/>
+    </row>
+    <row r="62" spans="2:18" ht="30" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G62" s="4">
+        <v>16</v>
+      </c>
+      <c r="H62" s="4"/>
+      <c r="I62" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J62" s="6">
+        <v>15</v>
+      </c>
+      <c r="K62" s="5">
+        <v>22</v>
+      </c>
+      <c r="L62" s="5">
+        <v>3</v>
+      </c>
+      <c r="M62" s="5">
+        <v>6</v>
+      </c>
+      <c r="N62" s="5">
+        <v>13</v>
+      </c>
+      <c r="O62" s="5">
+        <v>17</v>
+      </c>
+      <c r="P62" s="5">
+        <v>41</v>
+      </c>
+      <c r="Q62" s="4">
+        <v>-24</v>
+      </c>
+      <c r="R62" s="5"/>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G63" s="4">
+        <v>17</v>
+      </c>
+      <c r="H63" s="4"/>
+      <c r="I63" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J63" s="6">
+        <v>14</v>
+      </c>
+      <c r="K63" s="5">
+        <v>22</v>
+      </c>
+      <c r="L63" s="5">
+        <v>4</v>
+      </c>
+      <c r="M63" s="5">
+        <v>2</v>
+      </c>
+      <c r="N63" s="5">
+        <v>16</v>
+      </c>
+      <c r="O63" s="5">
+        <v>24</v>
+      </c>
+      <c r="P63" s="5">
+        <v>46</v>
+      </c>
+      <c r="Q63" s="4">
+        <v>-22</v>
+      </c>
+      <c r="R63" s="5"/>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
         <v>53</v>
       </c>
+      <c r="G64" s="4">
+        <v>18</v>
+      </c>
+      <c r="H64" s="4"/>
+      <c r="I64" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J64" s="6">
+        <v>12</v>
+      </c>
+      <c r="K64" s="5">
+        <v>22</v>
+      </c>
+      <c r="L64" s="5">
+        <v>3</v>
+      </c>
+      <c r="M64" s="5">
+        <v>3</v>
+      </c>
+      <c r="N64" s="5">
+        <v>16</v>
+      </c>
+      <c r="O64" s="5">
+        <v>18</v>
+      </c>
+      <c r="P64" s="5">
+        <v>48</v>
+      </c>
+      <c r="Q64" s="4">
+        <v>-30</v>
+      </c>
+      <c r="R64" s="5"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
@@ -1089,6 +1798,134 @@
   <mergeCells count="1">
     <mergeCell ref="A32:I32"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I47" r:id="rId1" display="https://www.zerozero.pt/equipa.php?id=6484&amp;epoca_id=149" xr:uid="{8A45556D-688E-4265-822E-34B4BCAE0DEF}"/>
+    <hyperlink ref="K47" r:id="rId2" tooltip="Ver todos jogos disputados" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=6484&amp;filtro=J" xr:uid="{8339DA11-3CA2-45A9-ABB8-35870C86A189}"/>
+    <hyperlink ref="L47" r:id="rId3" tooltip="Ver todas as vitórias" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=6484&amp;filtro=V" xr:uid="{06154402-EFA4-459E-B4CF-C1F9D0801FB5}"/>
+    <hyperlink ref="M47" r:id="rId4" tooltip="Ver todos os empates" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=6484&amp;filtro=E" xr:uid="{9D328B97-5D40-4575-A941-53FC4415CDC8}"/>
+    <hyperlink ref="N47" r:id="rId5" tooltip="Ver todas as derrotas" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=6484&amp;filtro=D" xr:uid="{6D1B509D-5AFE-43E2-9591-7B37DEA1DB17}"/>
+    <hyperlink ref="O47" r:id="rId6" tooltip="Ver todos os jogos com golos marcados" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=6484&amp;filtro=GM" xr:uid="{41ABA2E7-1BF1-41E5-AA01-1696BAFA1812}"/>
+    <hyperlink ref="P47" r:id="rId7" tooltip="Ver todos os jogos com golos sofridos" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=6484&amp;filtro=GS" xr:uid="{984692BD-4A6D-4CE0-9B82-4212A285CE91}"/>
+    <hyperlink ref="I48" r:id="rId8" display="https://www.zerozero.pt/equipa.php?id=18273&amp;epoca_id=149" xr:uid="{49F5E85F-133B-4FAC-8596-3C37657636CD}"/>
+    <hyperlink ref="K48" r:id="rId9" tooltip="Ver todos jogos disputados" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=18273&amp;filtro=J" xr:uid="{50C379F6-1B3A-4CAE-8D80-EF2D684125A8}"/>
+    <hyperlink ref="L48" r:id="rId10" tooltip="Ver todas as vitórias" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=18273&amp;filtro=V" xr:uid="{C992FA29-9106-43F2-87AE-537C17D872A7}"/>
+    <hyperlink ref="M48" r:id="rId11" tooltip="Ver todos os empates" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=18273&amp;filtro=E" xr:uid="{A0DBBB6E-B044-477D-9ABF-A267F27BF2A3}"/>
+    <hyperlink ref="N48" r:id="rId12" tooltip="Ver todas as derrotas" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=18273&amp;filtro=D" xr:uid="{59800E97-D27C-449B-81B3-E8072586DD7F}"/>
+    <hyperlink ref="O48" r:id="rId13" tooltip="Ver todos os jogos com golos marcados" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=18273&amp;filtro=GM" xr:uid="{83026567-6D46-44B7-8065-818DE24BE4C7}"/>
+    <hyperlink ref="P48" r:id="rId14" tooltip="Ver todos os jogos com golos sofridos" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=18273&amp;filtro=GS" xr:uid="{22D1605C-815E-4ED6-8FBF-B22F0AB165AA}"/>
+    <hyperlink ref="I49" r:id="rId15" display="https://www.zerozero.pt/equipa.php?id=11510&amp;epoca_id=149" xr:uid="{6E8EF9F5-57B1-4AF7-A832-50A26892C6DB}"/>
+    <hyperlink ref="K49" r:id="rId16" tooltip="Ver todos jogos disputados" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=11510&amp;filtro=J" xr:uid="{11DE8819-823B-476E-887B-658CC46F4D3D}"/>
+    <hyperlink ref="L49" r:id="rId17" tooltip="Ver todas as vitórias" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=11510&amp;filtro=V" xr:uid="{6AC626E1-619E-4E8B-B439-5EFFBAC5EBCE}"/>
+    <hyperlink ref="M49" r:id="rId18" tooltip="Ver todos os empates" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=11510&amp;filtro=E" xr:uid="{5C289FBC-7CA1-4FF7-B8F2-F0E370C09ACE}"/>
+    <hyperlink ref="N49" r:id="rId19" tooltip="Ver todas as derrotas" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=11510&amp;filtro=D" xr:uid="{5AC7B4CA-D858-4E44-A556-24F1EDB83416}"/>
+    <hyperlink ref="O49" r:id="rId20" tooltip="Ver todos os jogos com golos marcados" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=11510&amp;filtro=GM" xr:uid="{7C14DE7E-56FF-4A41-839B-788CBC070C0F}"/>
+    <hyperlink ref="P49" r:id="rId21" tooltip="Ver todos os jogos com golos sofridos" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=11510&amp;filtro=GS" xr:uid="{E482BA14-18F9-46C3-B2E8-138F15BF514F}"/>
+    <hyperlink ref="I50" r:id="rId22" display="https://www.zerozero.pt/equipa.php?id=8056&amp;epoca_id=149" xr:uid="{443A25F7-EAC9-4E63-99CE-99BC603D006B}"/>
+    <hyperlink ref="K50" r:id="rId23" tooltip="Ver todos jogos disputados" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=8056&amp;filtro=J" xr:uid="{142FF56F-6677-4592-AB3B-9FFA8C91D8CD}"/>
+    <hyperlink ref="L50" r:id="rId24" tooltip="Ver todas as vitórias" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=8056&amp;filtro=V" xr:uid="{5C9C9CEC-167A-4D9B-A277-D65A7242884C}"/>
+    <hyperlink ref="M50" r:id="rId25" tooltip="Ver todos os empates" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=8056&amp;filtro=E" xr:uid="{A3E0C30A-631A-49DC-8AA6-F3E1C124157D}"/>
+    <hyperlink ref="N50" r:id="rId26" tooltip="Ver todas as derrotas" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=8056&amp;filtro=D" xr:uid="{3FDCC840-F665-4CBC-9DFC-A3DF7032CB0B}"/>
+    <hyperlink ref="O50" r:id="rId27" tooltip="Ver todos os jogos com golos marcados" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=8056&amp;filtro=GM" xr:uid="{D98A1739-DA27-4170-9783-597A3B46C81F}"/>
+    <hyperlink ref="P50" r:id="rId28" tooltip="Ver todos os jogos com golos sofridos" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=8056&amp;filtro=GS" xr:uid="{6AD9EA8D-1661-46FA-94E5-BE66CF9EEBC4}"/>
+    <hyperlink ref="I51" r:id="rId29" display="https://www.zerozero.pt/equipa.php?id=3619&amp;epoca_id=149" xr:uid="{8F858673-72E6-4B6D-80BE-4E99870163D7}"/>
+    <hyperlink ref="K51" r:id="rId30" tooltip="Ver todos jogos disputados" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=3619&amp;filtro=J" xr:uid="{3FF167B6-6940-47CB-B555-3DA086480070}"/>
+    <hyperlink ref="L51" r:id="rId31" tooltip="Ver todas as vitórias" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=3619&amp;filtro=V" xr:uid="{013CAF9B-3263-49D5-872B-CB6C115A2370}"/>
+    <hyperlink ref="M51" r:id="rId32" tooltip="Ver todos os empates" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=3619&amp;filtro=E" xr:uid="{8B7EC424-E8BB-4782-964C-B027CF9F5CFE}"/>
+    <hyperlink ref="N51" r:id="rId33" tooltip="Ver todas as derrotas" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=3619&amp;filtro=D" xr:uid="{B2117202-F370-4B94-9987-D288BAF21105}"/>
+    <hyperlink ref="O51" r:id="rId34" tooltip="Ver todos os jogos com golos marcados" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=3619&amp;filtro=GM" xr:uid="{E68423D7-CC93-4791-A86E-7D4C6CE07EC5}"/>
+    <hyperlink ref="P51" r:id="rId35" tooltip="Ver todos os jogos com golos sofridos" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=3619&amp;filtro=GS" xr:uid="{61DD3C61-8FFC-47B4-89FB-7CCD818C31D1}"/>
+    <hyperlink ref="I52" r:id="rId36" display="https://www.zerozero.pt/equipa.php?id=3667&amp;epoca_id=149" xr:uid="{75AA1696-78F2-41A3-9785-92A404DA4581}"/>
+    <hyperlink ref="K52" r:id="rId37" tooltip="Ver todos jogos disputados" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=3667&amp;filtro=J" xr:uid="{1E129AE8-C9BB-4FEB-8387-69E32434C63C}"/>
+    <hyperlink ref="L52" r:id="rId38" tooltip="Ver todas as vitórias" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=3667&amp;filtro=V" xr:uid="{AAC24339-F96B-49F6-9B4C-C5C941475BF8}"/>
+    <hyperlink ref="M52" r:id="rId39" tooltip="Ver todos os empates" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=3667&amp;filtro=E" xr:uid="{98E8B386-D6B4-432A-9A85-671303FFD595}"/>
+    <hyperlink ref="N52" r:id="rId40" tooltip="Ver todas as derrotas" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=3667&amp;filtro=D" xr:uid="{097BDBB7-3C20-48A8-942A-156F5090EE5C}"/>
+    <hyperlink ref="O52" r:id="rId41" tooltip="Ver todos os jogos com golos marcados" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=3667&amp;filtro=GM" xr:uid="{E6E3CF5C-A5B1-4B56-A1C7-634BCD4B6D90}"/>
+    <hyperlink ref="P52" r:id="rId42" tooltip="Ver todos os jogos com golos sofridos" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=3667&amp;filtro=GS" xr:uid="{E2512C15-DF38-490E-BB70-D194DD4F81F4}"/>
+    <hyperlink ref="I53" r:id="rId43" display="https://www.zerozero.pt/equipa.php?id=10970&amp;epoca_id=149" xr:uid="{B74EC153-67EC-4540-B411-50FE3BDCECD4}"/>
+    <hyperlink ref="K53" r:id="rId44" tooltip="Ver todos jogos disputados" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=10970&amp;filtro=J" xr:uid="{432CBD27-FB6F-4ABF-97FF-747D7645F593}"/>
+    <hyperlink ref="L53" r:id="rId45" tooltip="Ver todas as vitórias" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=10970&amp;filtro=V" xr:uid="{9C767C58-9B1C-4A58-9A34-934EE6C4DCFB}"/>
+    <hyperlink ref="M53" r:id="rId46" tooltip="Ver todos os empates" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=10970&amp;filtro=E" xr:uid="{69DCEF51-3471-4E7F-B77F-2692560B3F99}"/>
+    <hyperlink ref="N53" r:id="rId47" tooltip="Ver todas as derrotas" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=10970&amp;filtro=D" xr:uid="{8E7C17A9-8102-408F-9E90-9BF473F26020}"/>
+    <hyperlink ref="O53" r:id="rId48" tooltip="Ver todos os jogos com golos marcados" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=10970&amp;filtro=GM" xr:uid="{58DC1201-49AA-49CF-BF64-3DABAD4377DE}"/>
+    <hyperlink ref="P53" r:id="rId49" tooltip="Ver todos os jogos com golos sofridos" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=10970&amp;filtro=GS" xr:uid="{8CE46F7D-4503-494C-A3C0-BC5846B765F3}"/>
+    <hyperlink ref="I54" r:id="rId50" display="https://www.zerozero.pt/equipa.php?id=10972&amp;epoca_id=149" xr:uid="{97CAB7E2-C15A-4BA8-8CE4-17208BE07768}"/>
+    <hyperlink ref="K54" r:id="rId51" tooltip="Ver todos jogos disputados" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=10972&amp;filtro=J" xr:uid="{F1E7494A-F977-4993-8261-CCA073227CE3}"/>
+    <hyperlink ref="L54" r:id="rId52" tooltip="Ver todas as vitórias" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=10972&amp;filtro=V" xr:uid="{3E69C92B-FBF8-476A-BC82-84FE2E43364A}"/>
+    <hyperlink ref="M54" r:id="rId53" tooltip="Ver todos os empates" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=10972&amp;filtro=E" xr:uid="{98C545CE-550D-4C96-824A-421CCBAD2E9C}"/>
+    <hyperlink ref="N54" r:id="rId54" tooltip="Ver todas as derrotas" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=10972&amp;filtro=D" xr:uid="{C9BADA4D-AF3A-44A8-8F91-A388FD2C2DC4}"/>
+    <hyperlink ref="O54" r:id="rId55" tooltip="Ver todos os jogos com golos marcados" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=10972&amp;filtro=GM" xr:uid="{4EBB547A-5C8A-4195-AB87-855A7D71E3BA}"/>
+    <hyperlink ref="P54" r:id="rId56" tooltip="Ver todos os jogos com golos sofridos" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=10972&amp;filtro=GS" xr:uid="{150724F7-EF66-4E33-82BB-A8E711F618F2}"/>
+    <hyperlink ref="I55" r:id="rId57" display="https://www.zerozero.pt/equipa.php?id=6486&amp;epoca_id=149" xr:uid="{3C067A87-7494-4C27-862A-40853636624A}"/>
+    <hyperlink ref="K55" r:id="rId58" tooltip="Ver todos jogos disputados" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=6486&amp;filtro=J" xr:uid="{7923BA8E-892B-4639-8364-8060833964A2}"/>
+    <hyperlink ref="L55" r:id="rId59" tooltip="Ver todas as vitórias" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=6486&amp;filtro=V" xr:uid="{8AA6CD66-5E6A-4A2E-919A-B8003D926A05}"/>
+    <hyperlink ref="M55" r:id="rId60" tooltip="Ver todos os empates" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=6486&amp;filtro=E" xr:uid="{3D010215-6814-4A54-BE19-0E733968A54D}"/>
+    <hyperlink ref="N55" r:id="rId61" tooltip="Ver todas as derrotas" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=6486&amp;filtro=D" xr:uid="{C00D960C-0FE3-4D82-85B5-C62D485CA0F3}"/>
+    <hyperlink ref="O55" r:id="rId62" tooltip="Ver todos os jogos com golos marcados" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=6486&amp;filtro=GM" xr:uid="{462E6BD9-C2D9-40CC-84DC-12372D58DD8C}"/>
+    <hyperlink ref="P55" r:id="rId63" tooltip="Ver todos os jogos com golos sofridos" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=6486&amp;filtro=GS" xr:uid="{FC776CB9-1817-4C35-AC46-2459A94AE012}"/>
+    <hyperlink ref="I56" r:id="rId64" display="https://www.zerozero.pt/equipa.php?id=4716&amp;epoca_id=149" xr:uid="{EA9810CD-86DE-4176-AC1D-6A3A120BDAEF}"/>
+    <hyperlink ref="K56" r:id="rId65" tooltip="Ver todos jogos disputados" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=4716&amp;filtro=J" xr:uid="{08D0EB5F-3A52-4800-B434-329EDAE1A02E}"/>
+    <hyperlink ref="L56" r:id="rId66" tooltip="Ver todas as vitórias" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=4716&amp;filtro=V" xr:uid="{0EAC4463-105C-432F-BAA5-DC8D47258E61}"/>
+    <hyperlink ref="M56" r:id="rId67" tooltip="Ver todos os empates" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=4716&amp;filtro=E" xr:uid="{0190EC7D-3C81-41D6-B3C2-1C18388C723D}"/>
+    <hyperlink ref="N56" r:id="rId68" tooltip="Ver todas as derrotas" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=4716&amp;filtro=D" xr:uid="{C263CD68-56F4-4B39-9CC2-AE2C755075B5}"/>
+    <hyperlink ref="O56" r:id="rId69" tooltip="Ver todos os jogos com golos marcados" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=4716&amp;filtro=GM" xr:uid="{C46E86CA-459C-424E-8601-E0CD8337C625}"/>
+    <hyperlink ref="P56" r:id="rId70" tooltip="Ver todos os jogos com golos sofridos" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=4716&amp;filtro=GS" xr:uid="{5E4061F0-CCAA-4E7B-94B2-116A39A9AE17}"/>
+    <hyperlink ref="I57" r:id="rId71" display="https://www.zerozero.pt/equipa.php?id=6470&amp;epoca_id=149" xr:uid="{168129CF-C846-4A33-A745-C6A82CE97F44}"/>
+    <hyperlink ref="K57" r:id="rId72" tooltip="Ver todos jogos disputados" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=6470&amp;filtro=J" xr:uid="{9340DECD-2443-481B-AFDE-ED874B7711D4}"/>
+    <hyperlink ref="L57" r:id="rId73" tooltip="Ver todas as vitórias" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=6470&amp;filtro=V" xr:uid="{79874DDE-74D2-421D-83BF-97F42C62E003}"/>
+    <hyperlink ref="M57" r:id="rId74" tooltip="Ver todos os empates" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=6470&amp;filtro=E" xr:uid="{5A6CB4D7-2596-4560-95A6-22FED13F67AE}"/>
+    <hyperlink ref="N57" r:id="rId75" tooltip="Ver todas as derrotas" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=6470&amp;filtro=D" xr:uid="{F7C5DCCB-2D4F-4B4B-9E9C-0569283370B7}"/>
+    <hyperlink ref="O57" r:id="rId76" tooltip="Ver todos os jogos com golos marcados" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=6470&amp;filtro=GM" xr:uid="{863E59F2-D1AF-4E48-BE83-BF9A59A176D9}"/>
+    <hyperlink ref="P57" r:id="rId77" tooltip="Ver todos os jogos com golos sofridos" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=6470&amp;filtro=GS" xr:uid="{1341F0DB-109E-4777-872F-1FBBDB8404FF}"/>
+    <hyperlink ref="I58" r:id="rId78" display="https://www.zerozero.pt/equipa.php?id=11513&amp;epoca_id=149" xr:uid="{6DF03DB6-0D1F-4AFA-874F-00DAF73B24CA}"/>
+    <hyperlink ref="K58" r:id="rId79" tooltip="Ver todos jogos disputados" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=11513&amp;filtro=J" xr:uid="{D0936E45-C464-466B-9896-E16C40B49544}"/>
+    <hyperlink ref="L58" r:id="rId80" tooltip="Ver todas as vitórias" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=11513&amp;filtro=V" xr:uid="{B44D1837-CDC3-401E-91E9-6B615B7530E6}"/>
+    <hyperlink ref="M58" r:id="rId81" tooltip="Ver todos os empates" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=11513&amp;filtro=E" xr:uid="{E17D69E3-638A-48E7-B24D-0F7083C066A6}"/>
+    <hyperlink ref="N58" r:id="rId82" tooltip="Ver todas as derrotas" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=11513&amp;filtro=D" xr:uid="{A1CCE19A-949F-46FE-A87C-F68EF017EB52}"/>
+    <hyperlink ref="O58" r:id="rId83" tooltip="Ver todos os jogos com golos marcados" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=11513&amp;filtro=GM" xr:uid="{6394B4C6-F776-49EB-AC05-B5C0A5E609CA}"/>
+    <hyperlink ref="P58" r:id="rId84" tooltip="Ver todos os jogos com golos sofridos" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=11513&amp;filtro=GS" xr:uid="{F7F046E6-43F9-45F6-A7C8-27AA0F295E39}"/>
+    <hyperlink ref="I59" r:id="rId85" display="https://www.zerozero.pt/equipa.php?id=10976&amp;epoca_id=149" xr:uid="{FCA28CA7-B993-40EF-B693-AA150ED16B7E}"/>
+    <hyperlink ref="K59" r:id="rId86" tooltip="Ver todos jogos disputados" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=10976&amp;filtro=J" xr:uid="{AD92100C-1D2B-4239-9216-205BC14BC76F}"/>
+    <hyperlink ref="L59" r:id="rId87" tooltip="Ver todas as vitórias" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=10976&amp;filtro=V" xr:uid="{F3717B61-3152-4B01-B4CD-31030AA77FF2}"/>
+    <hyperlink ref="M59" r:id="rId88" tooltip="Ver todos os empates" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=10976&amp;filtro=E" xr:uid="{F6BFDD38-C5E6-470D-8416-4BA9F5E57D2B}"/>
+    <hyperlink ref="N59" r:id="rId89" tooltip="Ver todas as derrotas" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=10976&amp;filtro=D" xr:uid="{A45AFF75-E409-4D89-ADE7-8300C93F32C4}"/>
+    <hyperlink ref="O59" r:id="rId90" tooltip="Ver todos os jogos com golos marcados" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=10976&amp;filtro=GM" xr:uid="{1F48DE7E-5F82-4EFF-8F9F-E6EDF562753B}"/>
+    <hyperlink ref="P59" r:id="rId91" tooltip="Ver todos os jogos com golos sofridos" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=10976&amp;filtro=GS" xr:uid="{1EA46698-88B6-4433-A23A-E96DA4B51397}"/>
+    <hyperlink ref="I60" r:id="rId92" display="https://www.zerozero.pt/equipa.php?id=3556&amp;epoca_id=149" xr:uid="{DB8D6F99-BEC5-4123-943A-C4ADD6425926}"/>
+    <hyperlink ref="K60" r:id="rId93" tooltip="Ver todos jogos disputados" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=3556&amp;filtro=J" xr:uid="{806BACB5-27E2-426B-AC81-DBA16D838759}"/>
+    <hyperlink ref="L60" r:id="rId94" tooltip="Ver todas as vitórias" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=3556&amp;filtro=V" xr:uid="{9536BF2E-33F3-4162-A49E-0390E2DB10E0}"/>
+    <hyperlink ref="M60" r:id="rId95" tooltip="Ver todos os empates" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=3556&amp;filtro=E" xr:uid="{39279237-DA36-4884-BF89-CDAD4506FEC1}"/>
+    <hyperlink ref="N60" r:id="rId96" tooltip="Ver todas as derrotas" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=3556&amp;filtro=D" xr:uid="{C2B9B22B-65A3-4EB4-AD6B-CFFDF7E71429}"/>
+    <hyperlink ref="O60" r:id="rId97" tooltip="Ver todos os jogos com golos marcados" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=3556&amp;filtro=GM" xr:uid="{2C2C7A69-B8FD-4F87-B870-C8B36C26B795}"/>
+    <hyperlink ref="P60" r:id="rId98" tooltip="Ver todos os jogos com golos sofridos" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=3556&amp;filtro=GS" xr:uid="{F6F1D305-1575-443C-AEA1-80ACEA445BE3}"/>
+    <hyperlink ref="I61" r:id="rId99" display="https://www.zerozero.pt/equipa.php?id=10974&amp;epoca_id=149" xr:uid="{0C9C4455-C314-45BE-B6D0-0B9C673E5499}"/>
+    <hyperlink ref="K61" r:id="rId100" tooltip="Ver todos jogos disputados" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=10974&amp;filtro=J" xr:uid="{80B46587-84BB-46F8-9678-55DE2EA123AF}"/>
+    <hyperlink ref="L61" r:id="rId101" tooltip="Ver todas as vitórias" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=10974&amp;filtro=V" xr:uid="{10C8477C-730A-4BD3-830F-6A4A41531CED}"/>
+    <hyperlink ref="M61" r:id="rId102" tooltip="Ver todos os empates" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=10974&amp;filtro=E" xr:uid="{EF4C90E5-6624-4AA7-936E-6926C3BB03AB}"/>
+    <hyperlink ref="N61" r:id="rId103" tooltip="Ver todas as derrotas" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=10974&amp;filtro=D" xr:uid="{5D8A21A1-9A75-46C3-A875-BF5C0FDBEFCC}"/>
+    <hyperlink ref="O61" r:id="rId104" tooltip="Ver todos os jogos com golos marcados" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=10974&amp;filtro=GM" xr:uid="{42584CF5-AD55-490C-8A9B-6E584AF631DE}"/>
+    <hyperlink ref="P61" r:id="rId105" tooltip="Ver todos os jogos com golos sofridos" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=10974&amp;filtro=GS" xr:uid="{562458FB-E816-4AC2-9672-D26E046745E1}"/>
+    <hyperlink ref="I62" r:id="rId106" display="https://www.zerozero.pt/equipa.php?id=95950&amp;epoca_id=149" xr:uid="{6F09C072-79B7-402D-A54F-66FCD285AB2A}"/>
+    <hyperlink ref="K62" r:id="rId107" tooltip="Ver todos jogos disputados" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=95950&amp;filtro=J" xr:uid="{70847C4D-11FA-4AC5-A1B0-43C9892698B3}"/>
+    <hyperlink ref="L62" r:id="rId108" tooltip="Ver todas as vitórias" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=95950&amp;filtro=V" xr:uid="{2A02A49C-06EE-4E17-8729-C6695D162A54}"/>
+    <hyperlink ref="M62" r:id="rId109" tooltip="Ver todos os empates" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=95950&amp;filtro=E" xr:uid="{07A65CF5-2FC8-42A1-B676-FA1DD66AB61B}"/>
+    <hyperlink ref="N62" r:id="rId110" tooltip="Ver todas as derrotas" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=95950&amp;filtro=D" xr:uid="{C470ECBF-9566-4087-9DE7-78CA70B84E11}"/>
+    <hyperlink ref="O62" r:id="rId111" tooltip="Ver todos os jogos com golos marcados" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=95950&amp;filtro=GM" xr:uid="{194A8F04-47BC-4FC6-B10E-725301129A5B}"/>
+    <hyperlink ref="P62" r:id="rId112" tooltip="Ver todos os jogos com golos sofridos" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=95950&amp;filtro=GS" xr:uid="{C4AA0D13-D140-4D49-8477-7CFA8D077C7A}"/>
+    <hyperlink ref="I63" r:id="rId113" display="https://www.zerozero.pt/equipa.php?id=11007&amp;epoca_id=149" xr:uid="{8FDC5450-5855-4223-B835-E2D405F6D09B}"/>
+    <hyperlink ref="K63" r:id="rId114" tooltip="Ver todos jogos disputados" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=11007&amp;filtro=J" xr:uid="{D653123C-A594-4ACF-A3ED-044712B1D96A}"/>
+    <hyperlink ref="L63" r:id="rId115" tooltip="Ver todas as vitórias" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=11007&amp;filtro=V" xr:uid="{AA53CD58-4C84-4826-88D8-F6A6992ABDE3}"/>
+    <hyperlink ref="M63" r:id="rId116" tooltip="Ver todos os empates" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=11007&amp;filtro=E" xr:uid="{07AA9E9E-CBE9-40D5-B43D-68880E94D3C6}"/>
+    <hyperlink ref="N63" r:id="rId117" tooltip="Ver todas as derrotas" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=11007&amp;filtro=D" xr:uid="{8250776F-09FB-41B3-B1A1-017B618FCCDC}"/>
+    <hyperlink ref="O63" r:id="rId118" tooltip="Ver todos os jogos com golos marcados" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=11007&amp;filtro=GM" xr:uid="{4C98A08B-E9C6-43EA-AC95-D36ACBE9CBA1}"/>
+    <hyperlink ref="P63" r:id="rId119" tooltip="Ver todos os jogos com golos sofridos" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=11007&amp;filtro=GS" xr:uid="{2D70B941-1E46-41A6-8F4C-8D98D874C6F4}"/>
+    <hyperlink ref="I64" r:id="rId120" display="https://www.zerozero.pt/equipa.php?id=11000&amp;epoca_id=149" xr:uid="{551A867F-058E-407C-92E9-0C75FB45FBA2}"/>
+    <hyperlink ref="K64" r:id="rId121" tooltip="Ver todos jogos disputados" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=11000&amp;filtro=J" xr:uid="{99FB4590-90CF-4E19-A914-4DAA045F1B99}"/>
+    <hyperlink ref="L64" r:id="rId122" tooltip="Ver todas as vitórias" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=11000&amp;filtro=V" xr:uid="{0F113895-A34C-4C10-82D5-476EA603FCBA}"/>
+    <hyperlink ref="M64" r:id="rId123" tooltip="Ver todos os empates" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=11000&amp;filtro=E" xr:uid="{EB1CDA9A-738B-4698-8E30-34AB57853EED}"/>
+    <hyperlink ref="N64" r:id="rId124" tooltip="Ver todas as derrotas" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=11000&amp;filtro=D" xr:uid="{3F4C4023-D48D-4446-B054-D64C081C73E5}"/>
+    <hyperlink ref="O64" r:id="rId125" tooltip="Ver todos os jogos com golos marcados" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=11000&amp;filtro=GM" xr:uid="{AD56BF56-352E-42C7-A5FC-3C68088E6BBA}"/>
+    <hyperlink ref="P64" r:id="rId126" tooltip="Ver todos os jogos com golos sofridos" display="https://www.zerozero.pt/edicao_calendario.php?id_edicao=136864&amp;equipa=11000&amp;filtro=GS" xr:uid="{D66667C8-53EF-495F-B45B-B5BE3A4A1934}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>